--- a/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
+++ b/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\3. Manejo_Dato_Y_Filtrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\3. Manejo_Datos_Y_Filtrado\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021E1F1A-B771-4B1C-9F0F-62D41E0E79FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12139294-551F-4F04-BB81-77EE5E3B5811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtros Y Ordenamiento" sheetId="1" r:id="rId1"/>
+    <sheet name="Eliminar Duplicados" sheetId="2" r:id="rId2"/>
+    <sheet name="Validación de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +86,42 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>Escáner</t>
+  </si>
+  <si>
+    <t>Categoría Permitida</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Carmen</t>
   </si>
 </sst>
 </file>
@@ -153,7 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -189,6 +227,68 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -205,14 +305,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DA51278-7222-4139-BA45-73A8593123B4}" name="Tabla1" displayName="Tabla1" ref="B5:F13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DA51278-7222-4139-BA45-73A8593123B4}" name="Tabla1" displayName="Tabla1" ref="B5:F13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B5:F13" xr:uid="{0DA51278-7222-4139-BA45-73A8593123B4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4EF74AA-1D02-412B-97C4-AF4B288CAECE}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{346B93E5-D460-4321-A754-F71FE97A00BE}" name="Nombre" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{06D66F1A-BD88-4D85-98A7-86279E4B5C25}" name="Edad" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{97751F32-DE2E-491A-95BD-C824ADF79FF0}" name="Salario" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AC36BB97-230E-4C59-993C-77224788C620}" name="Departamento" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A4EF74AA-1D02-412B-97C4-AF4B288CAECE}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{346B93E5-D460-4321-A754-F71FE97A00BE}" name="Nombre" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{06D66F1A-BD88-4D85-98A7-86279E4B5C25}" name="Edad" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{97751F32-DE2E-491A-95BD-C824ADF79FF0}" name="Salario" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AC36BB97-230E-4C59-993C-77224788C620}" name="Departamento" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B5:D13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B5:D13" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B5:D10" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E005CE5-9378-4810-AA39-392583E2459C}">
   <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,4 +839,208 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C33359-B233-449A-9520-032050ACCE10}">
+  <dimension ref="B4:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>201</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>204</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>201</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9300847-6FDE-4C6C-B237-8720DAA15B58}">
+  <dimension ref="B5:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>301</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>302</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>303</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>304</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>305</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
+++ b/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\3. Manejo_Datos_Y_Filtrado\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12139294-551F-4F04-BB81-77EE5E3B5811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF2468-5AC8-4BB2-9D15-CDC9290D5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtros Y Ordenamiento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Carmen</t>
+  </si>
+  <si>
+    <t>FILTRAR DATOS DONDE SALARIO SEA MAYOR A 3500</t>
+  </si>
+  <si>
+    <t>IMAGEN DE TABLA ORIGINAL</t>
+  </si>
+  <si>
+    <t>FILTRO AVANZADO: SUELDO ES &gt; 3000 Y EDAD &lt; 40</t>
   </si>
 </sst>
 </file>
@@ -153,12 +162,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -187,11 +202,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -258,21 +294,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -304,39 +325,143 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD70F63-88D7-4E6B-023E-DC1B18C81C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="733425"/>
+          <a:ext cx="4153480" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248271</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0F081D-1D4B-B0CB-688E-D0B8E14F90D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="762000"/>
+          <a:ext cx="4448796" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DA51278-7222-4139-BA45-73A8593123B4}" name="Tabla1" displayName="Tabla1" ref="B5:F13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B5:F13" xr:uid="{0DA51278-7222-4139-BA45-73A8593123B4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}" name="Tabla156" displayName="Tabla156" ref="B19:F27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B19:F27" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="lessThan" val="40"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="greaterThan" val="3000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4EF74AA-1D02-412B-97C4-AF4B288CAECE}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{346B93E5-D460-4321-A754-F71FE97A00BE}" name="Nombre" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{06D66F1A-BD88-4D85-98A7-86279E4B5C25}" name="Edad" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{97751F32-DE2E-491A-95BD-C824ADF79FF0}" name="Salario" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AC36BB97-230E-4C59-993C-77224788C620}" name="Departamento" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{7D3F1BAE-8DB8-4578-BE49-2BACDDBDD579}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DCD99766-1758-470E-BFD1-262B51939F31}" name="Nombre" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9C5C37E8-6D02-48DE-8EE7-A28D6F1689E4}" name="Edad" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9A26AF08-8876-4AC1-B58F-42AF80007606}" name="Salario" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{255C5EDF-FBF3-4809-B635-31B6E4179717}" name="Departamento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B5:D13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B5:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B5:D13" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B5:D10" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E005CE5-9378-4810-AA39-392583E2459C}">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,171 +797,202 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D20" s="2">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E20" s="2">
         <v>2500</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D21" s="2">
         <v>32</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E21" s="2">
         <v>3200</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>103</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D22" s="2">
         <v>45</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E22" s="2">
         <v>4100</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D23" s="2">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E23" s="2">
         <v>2900</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D24" s="2">
         <v>40</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E24" s="2">
         <v>3600</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>106</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D25" s="2">
         <v>22</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E25" s="2">
         <v>2200</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>107</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D26" s="2">
         <v>37</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E26" s="2">
         <v>3900</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>108</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D27" s="2">
         <v>30</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E27" s="2">
         <v>3100</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B17:F17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -845,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C33359-B233-449A-9520-032050ACCE10}">
   <dimension ref="B4:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -970,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9300847-6FDE-4C6C-B237-8720DAA15B58}">
   <dimension ref="B5:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
+++ b/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\3. Manejo_Datos_Y_Filtrado\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF2468-5AC8-4BB2-9D15-CDC9290D5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0782125-9440-474B-A179-3136DFF00444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -130,14 +130,20 @@
     <t>IMAGEN DE TABLA ORIGINAL</t>
   </si>
   <si>
-    <t>FILTRO AVANZADO: SUELDO ES &gt; 3000 Y EDAD &lt; 40</t>
+    <t>ORDENANDO LA COLUMNA NOMBRE DE MANERA ASCENDENTE A - Z</t>
+  </si>
+  <si>
+    <t>FILTRO AVANZADO: SALARIO ES &gt; 3000 Y EDAD &lt; 40</t>
+  </si>
+  <si>
+    <t>ORDENAR POR COLOR DE CELDA DONDE EL PRIMERO SEA EL COLOR AMARILLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +167,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -184,15 +204,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -208,28 +336,124 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -249,6 +473,163 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -310,6 +691,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -380,7 +764,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>248271</xdr:colOff>
+      <xdr:colOff>48246</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>133507</xdr:rowOff>
     </xdr:to>
@@ -415,53 +799,139 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76778</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5179F5E-6379-CD98-1BC5-D10EF8295E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="3400425"/>
+          <a:ext cx="4143953" cy="943107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9396CA-1714-8F6F-693A-0FECB06F1F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2257425"/>
+          <a:ext cx="4439270" cy="1838582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}" name="Tabla156" displayName="Tabla156" ref="B19:F27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B19:F27" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="lessThan" val="40"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="greaterThan" val="3000"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}" name="Tabla156" displayName="Tabla156" ref="H25:L33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="29" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="H25:L33" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H26:L33">
+    <sortCondition sortBy="cellColor" ref="H25:H33" dxfId="1"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7D3F1BAE-8DB8-4578-BE49-2BACDDBDD579}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{DCD99766-1758-470E-BFD1-262B51939F31}" name="Nombre" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9C5C37E8-6D02-48DE-8EE7-A28D6F1689E4}" name="Edad" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9A26AF08-8876-4AC1-B58F-42AF80007606}" name="Salario" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{255C5EDF-FBF3-4809-B635-31B6E4179717}" name="Departamento" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D3F1BAE-8DB8-4578-BE49-2BACDDBDD579}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DCD99766-1758-470E-BFD1-262B51939F31}" name="Nombre" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9C5C37E8-6D02-48DE-8EE7-A28D6F1689E4}" name="Edad" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9A26AF08-8876-4AC1-B58F-42AF80007606}" name="Salario" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{255C5EDF-FBF3-4809-B635-31B6E4179717}" name="Departamento" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B5:D13" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B5:D13" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="B3:D11" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B5:D10" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -784,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E005CE5-9378-4810-AA39-392583E2459C}">
-  <dimension ref="B3:L27"/>
+  <dimension ref="B3:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,195 +1269,219 @@
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="I25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="J25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="K25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="L25" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="16">
         <v>101</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="I26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="J26" s="11">
         <v>25</v>
       </c>
-      <c r="E20" s="2">
+      <c r="K26" s="11">
         <v>2500</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="L26" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="16">
+        <v>104</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="11">
+        <v>28</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2900</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="16">
+        <v>108</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="11">
+        <v>30</v>
+      </c>
+      <c r="K28" s="11">
+        <v>3100</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="17">
         <v>102</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="I29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2">
+      <c r="J29" s="11">
         <v>32</v>
       </c>
-      <c r="E21" s="2">
+      <c r="K29" s="11">
         <v>3200</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="L29" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="17">
+        <v>105</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="11">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11">
+        <v>3600</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="10">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="I31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="J31" s="11">
         <v>45</v>
       </c>
-      <c r="E22" s="2">
+      <c r="K31" s="11">
         <v>4100</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="L31" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>104</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2900</v>
-      </c>
-      <c r="F23" s="2" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H32" s="10">
+        <v>106</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="11">
+        <v>22</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2200</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="13">
+        <v>107</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="14">
+        <v>37</v>
+      </c>
+      <c r="K33" s="14">
+        <v>3900</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>105</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2200</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <v>37</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3900</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3100</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="H23:M23"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -999,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C33359-B233-449A-9520-032050ACCE10}">
-  <dimension ref="B4:D13"/>
+  <dimension ref="B3:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,105 +1506,102 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>800</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
+      <c r="B5" s="1">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>203</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>204</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>201</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>202</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>203</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>204</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>150</v>
-      </c>
-    </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>201</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>800</v>
+      <c r="B10" s="1">
+        <v>205</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>205</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B11" s="1">
         <v>206</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D11" s="1">
         <v>120</v>
       </c>
     </row>
@@ -1138,60 +1629,60 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>301</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>302</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>303</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>304</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>305</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
+++ b/3. Manejo_Datos_Y_Filtrado/ejercicios/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\3. Manejo_Datos_Y_Filtrado\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0782125-9440-474B-A179-3136DFF00444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA28492-66AF-4E16-9673-E12588BDE5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{E6D14B3D-FD69-4D23-A01D-A6D2390D0360}"/>
   </bookViews>
   <sheets>
     <sheet name="Filtros Y Ordenamiento" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>ORDENAR POR COLOR DE CELDA DONDE EL PRIMERO SEA EL COLOR AMARILLO</t>
+  </si>
+  <si>
+    <t>TABLA ORIGINA</t>
+  </si>
+  <si>
+    <t>QUITANDO VALORES DUPLICADOS</t>
+  </si>
+  <si>
+    <t>TABLA ORIGINAL</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>VALIDAR SI ES FEMENINO O MASCULINO CON: Femenino; Masculino</t>
   </si>
 </sst>
 </file>
@@ -319,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,13 +348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -370,90 +381,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -473,163 +422,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -695,6 +487,221 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,41 +904,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}" name="Tabla156" displayName="Tabla156" ref="H25:L33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="29" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}" name="Tabla156" displayName="Tabla156" ref="H25:L33" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="H25:L33" xr:uid="{B1C492F3-8CCD-4393-88B8-49B7FEACFBDB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H26:L33">
-    <sortCondition sortBy="cellColor" ref="H25:H33" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="H25:H33" dxfId="25"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7D3F1BAE-8DB8-4578-BE49-2BACDDBDD579}" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{DCD99766-1758-470E-BFD1-262B51939F31}" name="Nombre" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9C5C37E8-6D02-48DE-8EE7-A28D6F1689E4}" name="Edad" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{9A26AF08-8876-4AC1-B58F-42AF80007606}" name="Salario" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{255C5EDF-FBF3-4809-B635-31B6E4179717}" name="Departamento" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{7D3F1BAE-8DB8-4578-BE49-2BACDDBDD579}" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{DCD99766-1758-470E-BFD1-262B51939F31}" name="Nombre" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9C5C37E8-6D02-48DE-8EE7-A28D6F1689E4}" name="Edad" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9A26AF08-8876-4AC1-B58F-42AF80007606}" name="Salario" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{255C5EDF-FBF3-4809-B635-31B6E4179717}" name="Departamento" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B3:D11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="B3:D11" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}" name="Tabla2" displayName="Tabla2" ref="B4:D12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B4:D12" xr:uid="{C1A17F18-177D-46E9-92F4-DBA7E336B006}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3F34CA6C-5740-400E-90D4-325AE6405B5D}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3F0B39C0-E21D-4919-A0C1-5C5FEAC0195F}" name="Producto" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B6F71AEC-75A9-4DE1-A1CB-C54E818F86A7}" name="Precio" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED3E2C-FFDD-4BF2-B9AA-3ECD8B7E5604}" name="Tabla22" displayName="Tabla22" ref="F4:H10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="F4:H10" xr:uid="{74ED3E2C-FFDD-4BF2-B9AA-3ECD8B7E5604}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9C3B22CF-25B8-4551-89A1-3D6060CB7FCA}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{52103933-8397-4655-A4E9-E876B030054E}" name="Producto" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{45B17EF2-4FB0-40C0-BBE2-C46FA311BB98}" name="Precio" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}" name="Tabla3" displayName="Tabla3" ref="B5:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B5:D10" xr:uid="{069D27E0-A1CE-4B47-964F-26FB014F197A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{8807AF24-3D29-4B9C-AC9A-6910F372951E}" name="ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C575C040-EE78-4ED9-A76E-B57585874244}" name="Nombre" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C98B0593-1B0B-49F6-94A1-A2C6265EC7E0}" name="Categoría Permitida" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{745D35B5-FE5D-4F27-ADA1-7B71F8AB2E62}" name="Tabla35" displayName="Tabla35" ref="F5:H10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="F5:H10" xr:uid="{745D35B5-FE5D-4F27-ADA1-7B71F8AB2E62}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EF417028-E286-4945-AE37-BC8B094DA3C7}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{91B44D4E-18EF-42D9-BE35-024285B023C7}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{599C3A51-3052-42C2-B92A-2F6933675889}" name="Categoría Permitida" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1273,205 +1304,202 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="6"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <v>101</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>25</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>2500</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <v>104</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>28</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>2900</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H28" s="16">
+      <c r="H28" s="13">
         <v>108</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <v>30</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="8">
         <v>3100</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>102</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="8">
         <v>32</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="8">
         <v>3200</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>105</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <v>40</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="8">
         <v>3600</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="10">
+      <c r="H31" s="7">
         <v>103</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="8">
         <v>45</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="8">
         <v>4100</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H32" s="10">
+      <c r="H32" s="7">
         <v>106</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>22</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <v>2200</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H33" s="13">
+      <c r="H33" s="10">
         <v>107</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="11">
         <v>37</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="11">
         <v>3900</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1493,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C33359-B233-449A-9520-032050ACCE10}">
-  <dimension ref="B3:D11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,119 +1534,199 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>201</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="F5" s="1">
+        <v>201</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>202</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="F6" s="1">
+        <v>202</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>203</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="F7" s="1">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>204</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="F8" s="1">
+        <v>204</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>201</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+      <c r="F9" s="1">
+        <v>205</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>202</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="F10" s="1">
+        <v>206</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>205</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>206</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>120</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9300847-6FDE-4C6C-B237-8720DAA15B58}">
-  <dimension ref="B5:D10"/>
+  <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,9 +1734,24 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1638,8 +1761,17 @@
       <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>301</v>
       </c>
@@ -1647,8 +1779,17 @@
         <v>25</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>301</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>302</v>
       </c>
@@ -1656,8 +1797,17 @@
         <v>26</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>302</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>303</v>
       </c>
@@ -1665,8 +1815,17 @@
         <v>9</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>303</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>304</v>
       </c>
@@ -1674,8 +1833,17 @@
         <v>27</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>304</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>305</v>
       </c>
@@ -1683,11 +1851,30 @@
         <v>15</v>
       </c>
       <c r="D10" s="1"/>
+      <c r="F10" s="1">
+        <v>305</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:I3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H10" xr:uid="{950E505B-597E-4786-B6F6-B4FD571241F4}">
+      <formula1>"Femenino, Masculino"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>